--- a/data/pca/factorExposure/factorExposure_2012-08-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-15.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002855783437327111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001872114893504885</v>
+      </c>
+      <c r="C2">
+        <v>0.02872257572278643</v>
+      </c>
+      <c r="D2">
+        <v>-0.004806184344529989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>9.23610843885894e-06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.00666816600603536</v>
+      </c>
+      <c r="C4">
+        <v>0.08422692268580423</v>
+      </c>
+      <c r="D4">
+        <v>-0.0657183745280419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005007239441434589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01475431992867315</v>
+      </c>
+      <c r="C6">
+        <v>0.1182838466788931</v>
+      </c>
+      <c r="D6">
+        <v>-0.01831163713242138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0003050173418794932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005074326862017227</v>
+      </c>
+      <c r="C7">
+        <v>0.05955462566882873</v>
+      </c>
+      <c r="D7">
+        <v>-0.03123725195399419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.000563688741108443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004941242685547604</v>
+      </c>
+      <c r="C8">
+        <v>0.03523497085500406</v>
+      </c>
+      <c r="D8">
+        <v>-0.03659260926023222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0006388122157241943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005949017770414433</v>
+      </c>
+      <c r="C9">
+        <v>0.07297721962957729</v>
+      </c>
+      <c r="D9">
+        <v>-0.07066882427380525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0006747028947219481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.001838352992240836</v>
+      </c>
+      <c r="C10">
+        <v>0.05088980591349032</v>
+      </c>
+      <c r="D10">
+        <v>0.1857181514031125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0008304157277293258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.006324935652747327</v>
+      </c>
+      <c r="C11">
+        <v>0.08103669840298319</v>
+      </c>
+      <c r="D11">
+        <v>-0.06668600988271343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0009457209760144761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004676625032727995</v>
+      </c>
+      <c r="C12">
+        <v>0.0653102314836078</v>
+      </c>
+      <c r="D12">
+        <v>-0.05016634258825698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002222271856598971</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009452735179641725</v>
+      </c>
+      <c r="C13">
+        <v>0.07068298526377109</v>
+      </c>
+      <c r="D13">
+        <v>-0.05695237520547094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001837963698186908</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007893631705021292</v>
+      </c>
+      <c r="C14">
+        <v>0.04361885828248523</v>
+      </c>
+      <c r="D14">
+        <v>-0.0129242454269391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001585954148769701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006241625574903401</v>
+      </c>
+      <c r="C15">
+        <v>0.04088118740625221</v>
+      </c>
+      <c r="D15">
+        <v>-0.02549299953263798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0001457135217870338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.00544831305836484</v>
+      </c>
+      <c r="C16">
+        <v>0.06488036625318173</v>
+      </c>
+      <c r="D16">
+        <v>-0.05677021737723489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002399617796322163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008948142480592487</v>
+      </c>
+      <c r="C20">
+        <v>0.06490080478048532</v>
+      </c>
+      <c r="D20">
+        <v>-0.04943221383089762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005294272229290992</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009571442823539189</v>
+      </c>
+      <c r="C21">
+        <v>0.02216542985290896</v>
+      </c>
+      <c r="D21">
+        <v>-0.04088375660551038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02045650870205364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007340567449747842</v>
+      </c>
+      <c r="C22">
+        <v>0.08766847845530347</v>
+      </c>
+      <c r="D22">
+        <v>-0.1183441953759422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02011851280840005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007046397781290028</v>
+      </c>
+      <c r="C23">
+        <v>0.08807861658148251</v>
+      </c>
+      <c r="D23">
+        <v>-0.1194461399621911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001297434221282794</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.006249811150790509</v>
+      </c>
+      <c r="C24">
+        <v>0.07735304052289536</v>
+      </c>
+      <c r="D24">
+        <v>-0.06558684542932053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.00306421460349804</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003754442194698528</v>
+      </c>
+      <c r="C25">
+        <v>0.0785248877597385</v>
+      </c>
+      <c r="D25">
+        <v>-0.06358414839992955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001182251601531308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003956238554679361</v>
+      </c>
+      <c r="C26">
+        <v>0.04036080838175763</v>
+      </c>
+      <c r="D26">
+        <v>-0.01931085685092148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00696257524112317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002577675721480684</v>
+      </c>
+      <c r="C28">
+        <v>0.1003190503378523</v>
+      </c>
+      <c r="D28">
+        <v>0.326902639533056</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0007285026126550294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003518818230255464</v>
+      </c>
+      <c r="C29">
+        <v>0.04739728437252097</v>
+      </c>
+      <c r="D29">
+        <v>-0.01015572548295114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003065655258799516</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009740810837044638</v>
+      </c>
+      <c r="C30">
+        <v>0.1425262879325888</v>
+      </c>
+      <c r="D30">
+        <v>-0.1074050462373907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001684479341667128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006273946465029529</v>
+      </c>
+      <c r="C31">
+        <v>0.04411325944680063</v>
+      </c>
+      <c r="D31">
+        <v>-0.02894143791904537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005558336307099073</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004550257133361981</v>
+      </c>
+      <c r="C32">
+        <v>0.03880514929920944</v>
+      </c>
+      <c r="D32">
+        <v>-0.0170966536498098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>1.011132400072719e-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009014735691878707</v>
+      </c>
+      <c r="C33">
+        <v>0.09125016883343064</v>
+      </c>
+      <c r="D33">
+        <v>-0.0619239756564404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001074287251619581</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004795042673872292</v>
+      </c>
+      <c r="C34">
+        <v>0.05832803535150042</v>
+      </c>
+      <c r="D34">
+        <v>-0.05733208591439458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001782858581287525</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005045854578827553</v>
+      </c>
+      <c r="C35">
+        <v>0.04063057166546707</v>
+      </c>
+      <c r="D35">
+        <v>-0.01364269888932391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004621392923947287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.00144283849488825</v>
+      </c>
+      <c r="C36">
+        <v>0.02525660112327199</v>
+      </c>
+      <c r="D36">
+        <v>-0.01881871903597285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002242962361993673</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008759760362421669</v>
+      </c>
+      <c r="C38">
+        <v>0.04108294446819091</v>
+      </c>
+      <c r="D38">
+        <v>-0.01253969943165508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01142437543527071</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001336955613755618</v>
+      </c>
+      <c r="C39">
+        <v>0.1137647057499907</v>
+      </c>
+      <c r="D39">
+        <v>-0.0827431975435502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.004225151814191092</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002955141095900161</v>
+      </c>
+      <c r="C40">
+        <v>0.09138775585644363</v>
+      </c>
+      <c r="D40">
+        <v>-0.01455513472682062</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002292282572138524</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007634245435092119</v>
+      </c>
+      <c r="C41">
+        <v>0.04203369716488322</v>
+      </c>
+      <c r="D41">
+        <v>-0.04399776414573577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002007201259087098</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004145926289691593</v>
+      </c>
+      <c r="C43">
+        <v>0.05472283721604506</v>
+      </c>
+      <c r="D43">
+        <v>-0.02678074031301836</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.008176589683107943</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002165604966249378</v>
+      </c>
+      <c r="C44">
+        <v>0.1047340131338927</v>
+      </c>
+      <c r="D44">
+        <v>-0.06315490438554831</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001927754177496969</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001253886204674667</v>
+      </c>
+      <c r="C46">
+        <v>0.03319267670669729</v>
+      </c>
+      <c r="D46">
+        <v>-0.03401079155018053</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-9.957997122747055e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002930054498031058</v>
+      </c>
+      <c r="C47">
+        <v>0.03475991098321923</v>
+      </c>
+      <c r="D47">
+        <v>-0.01961114023739663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004712858746948801</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007855928114714942</v>
+      </c>
+      <c r="C48">
+        <v>0.03404628096084852</v>
+      </c>
+      <c r="D48">
+        <v>-0.02616317427670532</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.00477342386887049</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01844514538440438</v>
+      </c>
+      <c r="C49">
+        <v>0.1868132971370753</v>
+      </c>
+      <c r="D49">
+        <v>-0.01154307112214118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0003609712352328325</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004246303774670277</v>
+      </c>
+      <c r="C50">
+        <v>0.0429240773109413</v>
+      </c>
+      <c r="D50">
+        <v>-0.0373015360351649</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0001979306246488136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003969248353191492</v>
+      </c>
+      <c r="C51">
+        <v>0.02724920659701452</v>
+      </c>
+      <c r="D51">
+        <v>-0.02280885075571863</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008173238489545686</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02204018407117816</v>
+      </c>
+      <c r="C53">
+        <v>0.1724962692098968</v>
+      </c>
+      <c r="D53">
+        <v>-0.01966134480240277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003231199437750612</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009543344551590836</v>
+      </c>
+      <c r="C54">
+        <v>0.05736214067596236</v>
+      </c>
+      <c r="D54">
+        <v>-0.03981265718254749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001762466662483235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01026845341372933</v>
+      </c>
+      <c r="C55">
+        <v>0.1087496997055865</v>
+      </c>
+      <c r="D55">
+        <v>-0.03270173650592485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.008351808558517828</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02153692431555163</v>
+      </c>
+      <c r="C56">
+        <v>0.1748450336589587</v>
+      </c>
+      <c r="D56">
+        <v>-0.01296160648714333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.0007707906002417115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01687166003739848</v>
+      </c>
+      <c r="C58">
+        <v>0.1069340541790894</v>
+      </c>
+      <c r="D58">
+        <v>-0.05911802401356184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002655049111043881</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009470471084520874</v>
+      </c>
+      <c r="C59">
+        <v>0.1659461659918987</v>
+      </c>
+      <c r="D59">
+        <v>0.3485879012041309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.007913597852232238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02670149096736053</v>
+      </c>
+      <c r="C60">
+        <v>0.2246536493889014</v>
+      </c>
+      <c r="D60">
+        <v>-0.01767204056753897</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01043055185178802</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001849624052335358</v>
+      </c>
+      <c r="C61">
+        <v>0.09505642433985968</v>
+      </c>
+      <c r="D61">
+        <v>-0.0592469880856089</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1499841083355562</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.153703528305215</v>
+      </c>
+      <c r="C62">
+        <v>0.1021787103430729</v>
+      </c>
+      <c r="D62">
+        <v>-0.01669387102455123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0007646949601637097</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006468519304102735</v>
+      </c>
+      <c r="C63">
+        <v>0.05417600896628424</v>
+      </c>
+      <c r="D63">
+        <v>-0.0321895807730495</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0101671895794977</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01726906322726012</v>
+      </c>
+      <c r="C64">
+        <v>0.1071993739661155</v>
+      </c>
+      <c r="D64">
+        <v>-0.0520369001208933</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.007807743536404873</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01767260112681508</v>
+      </c>
+      <c r="C65">
+        <v>0.1196870483105167</v>
+      </c>
+      <c r="D65">
+        <v>-0.01925916589180591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.002122607773533168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01306707277391963</v>
+      </c>
+      <c r="C66">
+        <v>0.1621982741244087</v>
+      </c>
+      <c r="D66">
+        <v>-0.1155246577667454</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.005466540839171197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01530964159543101</v>
+      </c>
+      <c r="C67">
+        <v>0.07384122411217502</v>
+      </c>
+      <c r="D67">
+        <v>-0.0254098483922959</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004862042963147421</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0004106792414104984</v>
+      </c>
+      <c r="C68">
+        <v>0.08171919881371117</v>
+      </c>
+      <c r="D68">
+        <v>0.2612982198501243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0003611549895973128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006338142344614631</v>
+      </c>
+      <c r="C69">
+        <v>0.05192553250558832</v>
+      </c>
+      <c r="D69">
+        <v>-0.03561210584455719</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001561803766443402</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002631094294074905</v>
+      </c>
+      <c r="C70">
+        <v>0.008861975924377579</v>
+      </c>
+      <c r="D70">
+        <v>0.001280612528399139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0004207078130222042</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004355649850267977</v>
+      </c>
+      <c r="C71">
+        <v>0.08599955345872404</v>
+      </c>
+      <c r="D71">
+        <v>0.3026861448236571</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.004499915603387412</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01825113016416709</v>
+      </c>
+      <c r="C72">
+        <v>0.1576984329691913</v>
+      </c>
+      <c r="D72">
+        <v>-0.008424059351543658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.008933249907443102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03173341566605827</v>
+      </c>
+      <c r="C73">
+        <v>0.2823491400703439</v>
+      </c>
+      <c r="D73">
+        <v>-0.05593010295352404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005972241213892061</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001905002032784081</v>
+      </c>
+      <c r="C74">
+        <v>0.1036623773903025</v>
+      </c>
+      <c r="D74">
+        <v>-0.03036053021894958</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0007162829005221928</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01208985410413602</v>
+      </c>
+      <c r="C75">
+        <v>0.1197818240567198</v>
+      </c>
+      <c r="D75">
+        <v>-0.02636600427991418</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01059649005355642</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02235548049244728</v>
+      </c>
+      <c r="C76">
+        <v>0.146230777539491</v>
+      </c>
+      <c r="D76">
+        <v>-0.05493334477796585</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.006306241635636876</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02159767399519757</v>
+      </c>
+      <c r="C77">
+        <v>0.1108241485737254</v>
+      </c>
+      <c r="D77">
+        <v>-0.04585693860233542</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.003931887191170125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01448178722236217</v>
+      </c>
+      <c r="C78">
+        <v>0.1004135951339093</v>
+      </c>
+      <c r="D78">
+        <v>-0.08038044992998346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02693180415145832</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03939524399538473</v>
+      </c>
+      <c r="C79">
+        <v>0.1576045183895947</v>
+      </c>
+      <c r="D79">
+        <v>-0.02845184880540288</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006634902132011819</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009949826856750311</v>
+      </c>
+      <c r="C80">
+        <v>0.03956346026130576</v>
+      </c>
+      <c r="D80">
+        <v>-0.03044515138295786</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005084228325047031</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01670398861285867</v>
+      </c>
+      <c r="C81">
+        <v>0.13095472433637</v>
+      </c>
+      <c r="D81">
+        <v>-0.03550975586845715</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007468845653326532</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0200437229324045</v>
+      </c>
+      <c r="C82">
+        <v>0.1367491585702827</v>
+      </c>
+      <c r="D82">
+        <v>-0.03591430371841696</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003279494473274943</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01231037581146875</v>
+      </c>
+      <c r="C83">
+        <v>0.06390506120710522</v>
+      </c>
+      <c r="D83">
+        <v>-0.04586290449869589</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004308844257264775</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006752526443877195</v>
+      </c>
+      <c r="C84">
+        <v>0.03483355472329552</v>
+      </c>
+      <c r="D84">
+        <v>-0.01473437929673954</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01843589985416807</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02899645007592747</v>
+      </c>
+      <c r="C85">
+        <v>0.1236315776896125</v>
+      </c>
+      <c r="D85">
+        <v>-0.0380578948578042</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002968665035463191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003775572824585943</v>
+      </c>
+      <c r="C86">
+        <v>0.05124349618637892</v>
+      </c>
+      <c r="D86">
+        <v>-0.02529320383301535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0008778209219722433</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01209785260117572</v>
+      </c>
+      <c r="C87">
+        <v>0.1290725076163174</v>
+      </c>
+      <c r="D87">
+        <v>-0.07131664400494143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008718232144318293</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002870327669894256</v>
+      </c>
+      <c r="C88">
+        <v>0.06389775337595599</v>
+      </c>
+      <c r="D88">
+        <v>-0.02843506146256741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.0116062809301025</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003220208535272892</v>
+      </c>
+      <c r="C89">
+        <v>0.1316639216624554</v>
+      </c>
+      <c r="D89">
+        <v>0.3215988988665475</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002248790262266449</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005273497625936163</v>
+      </c>
+      <c r="C90">
+        <v>0.1140029056712189</v>
+      </c>
+      <c r="D90">
+        <v>0.3154964619145381</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002325649669585142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01154151206970445</v>
+      </c>
+      <c r="C91">
+        <v>0.09890149113572201</v>
+      </c>
+      <c r="D91">
+        <v>-0.02679616838474878</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.00589155096281456</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006918657703133135</v>
+      </c>
+      <c r="C92">
+        <v>0.1258577329687618</v>
+      </c>
+      <c r="D92">
+        <v>0.3262471070260667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.00164505178837702</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003141575660346636</v>
+      </c>
+      <c r="C93">
+        <v>0.1019804109817879</v>
+      </c>
+      <c r="D93">
+        <v>0.3012412290493361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00997243721682884</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0225516824835715</v>
+      </c>
+      <c r="C94">
+        <v>0.1389422960575896</v>
+      </c>
+      <c r="D94">
+        <v>-0.05165510472964809</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006520867370183917</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01646512360872462</v>
+      </c>
+      <c r="C95">
+        <v>0.1217266149805132</v>
+      </c>
+      <c r="D95">
+        <v>-0.06889139523418976</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01655422935639889</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03717889905674774</v>
+      </c>
+      <c r="C97">
+        <v>0.2236001445524499</v>
+      </c>
+      <c r="D97">
+        <v>0.00268723174007892</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01118110975125764</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0400729067459754</v>
+      </c>
+      <c r="C98">
+        <v>0.262380172245585</v>
+      </c>
+      <c r="D98">
+        <v>-0.03329144397868469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9865769655631761</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9803112693620123</v>
+      </c>
+      <c r="C99">
+        <v>-0.1230861387914245</v>
+      </c>
+      <c r="D99">
+        <v>0.0256059162405465</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0007533293987261109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003509704559320384</v>
+      </c>
+      <c r="C101">
+        <v>0.04758082487262462</v>
+      </c>
+      <c r="D101">
+        <v>-0.01080659172859775</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
